--- a/data/TSLA_weekly_return.xlsx
+++ b/data/TSLA_weekly_return.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhicq/GitHub/FastIsSlow/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E340B045-D058-A541-9EFD-A7073800D83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1D37FADD-3F1A-6140-96C6-33CAB57F8C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="900" windowWidth="23160" windowHeight="17440"/>
   </bookViews>
@@ -923,8 +923,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C680"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A702" zoomScale="233" workbookViewId="0">
-      <selection activeCell="C705" sqref="C705"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="A559" sqref="A559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
